--- a/25.ziplinesolutionsus/extracted_data/25.zipline.xlsx
+++ b/25.ziplinesolutionsus/extracted_data/25.zipline.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -32,6 +32,12 @@
     <t>phone</t>
   </si>
   <si>
+    <t>phone1</t>
+  </si>
+  <si>
+    <t>phone2</t>
+  </si>
+  <si>
     <t>description1</t>
   </si>
   <si>
@@ -159,6 +165,9 @@
   </si>
   <si>
     <t>https://www.ziplinesolutionsus.com/wp-content/uploads/sites/4/2016/12/Locations_300x200_TheZone.jpg</t>
+  </si>
+  <si>
+    <t>(732) 730-1002</t>
   </si>
   <si>
     <t>Gilboa, New York
@@ -376,8 +385,14 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -764,8 +779,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540bf4bc-a420-4c8a-bb25-98d269d75fe5}">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d9a98710-f06f-4cd8-85d5-e0b4301f18d5}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -776,384 +791,420 @@
     <col min="3" max="3" width="102.428571428571" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="16.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="32.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="236.285714285714" customWidth="1"/>
+    <col min="6" max="6" width="13.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="32.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="236.285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="12.75">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="12.75">
-      <c r="A3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="12.75">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="12.75">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="12.75">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="12.75">
-      <c r="A9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="B11" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="12.75">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="G11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="12.75">
+      <c r="A12" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="B12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
         <v>61</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="B13" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="12.75">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="G13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="12.75">
+      <c r="A14" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="B14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
         <v>71</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="B15" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="12.75">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="G15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="12.75">
+      <c r="A16" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="B16" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="C16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.75">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
         <v>80</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>81</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
         <v>82</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="B17" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="12.75">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="G17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="12.75">
+      <c r="A18" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="B18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
         <v>90</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>91</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
         <v>92</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" ht="12.75">
+      <c r="A19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="B19" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="C19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/25.ziplinesolutionsus/extracted_data/25.zipline.xlsx
+++ b/25.ziplinesolutionsus/extracted_data/25.zipline.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -71,12 +71,12 @@
     <t>https://www.ziplinesolutionsus.com/wp-content/uploads/sites/4/2016/12/Spencer-Valley-Ziplines.png</t>
   </si>
   <si>
+    <t>Redwood, New York</t>
+  </si>
+  <si>
     <t>(315) 767-3235</t>
   </si>
   <si>
-    <t>Redwood, New York</t>
-  </si>
-  <si>
     <t>Xtreme Park Adventures</t>
   </si>
   <si>
@@ -86,12 +86,12 @@
     <t>https://www.ziplinesolutionsus.com/wp-content/uploads/sites/4/2016/12/XTreme-Park-Adventures-1.png</t>
   </si>
   <si>
+    <t>Durham, North Carolina</t>
+  </si>
+  <si>
     <t>(919) 596-6100</t>
   </si>
   <si>
-    <t>Durham, North Carolina</t>
-  </si>
-  <si>
     <t>The Children’s Movement Center</t>
   </si>
   <si>
@@ -101,12 +101,12 @@
     <t>https://www.ziplinesolutionsus.com/wp-content/uploads/sites/4/2016/12/Locations_300x200_ChildrensMovementCenter.jpg</t>
   </si>
   <si>
+    <t>New Milford, Connecticut</t>
+  </si>
+  <si>
     <t>(860) 799-6602</t>
   </si>
   <si>
-    <t>New Milford, Connecticut</t>
-  </si>
-  <si>
     <t>Soaring Cliffs</t>
   </si>
   <si>
@@ -152,12 +152,12 @@
     <t>https://www.ziplinesolutionsus.com/wp-content/uploads/sites/4/2016/12/AdrenalineFallsZipline.jpg</t>
   </si>
   <si>
+    <t>Mackinaw City, Michigan</t>
+  </si>
+  <si>
     <t>(231) 436-5630</t>
   </si>
   <si>
-    <t>Mackinaw City, Michigan</t>
-  </si>
-  <si>
     <t>The Zone</t>
   </si>
   <si>
@@ -165,15 +165,15 @@
   </si>
   <si>
     <t>https://www.ziplinesolutionsus.com/wp-content/uploads/sites/4/2016/12/Locations_300x200_TheZone.jpg</t>
-  </si>
-  <si>
-    <t>(732) 730-1002</t>
   </si>
   <si>
     <t>Gilboa, New York
 Stamford, New York</t>
   </si>
   <si>
+    <t>(732) 730-1002</t>
+  </si>
+  <si>
     <t>Riversport Adventures</t>
   </si>
   <si>
@@ -183,12 +183,12 @@
     <t>https://www.ziplinesolutionsus.com/wp-content/uploads/sites/4/2016/12/Locations_300x200_RiversportAdventures.jpg</t>
   </si>
   <si>
+    <t>Oklahoma City, Oklahoma</t>
+  </si>
+  <si>
     <t>(405) 552-4040</t>
   </si>
   <si>
-    <t>Oklahoma City, Oklahoma</t>
-  </si>
-  <si>
     <t>Holiday Mountain</t>
   </si>
   <si>
@@ -198,12 +198,12 @@
     <t>https://www.ziplinesolutionsus.com/wp-content/uploads/sites/4/2016/12/Holiday-Mountain-1.png</t>
   </si>
   <si>
+    <t>La Riviere, Manitoba, Canada</t>
+  </si>
+  <si>
     <t>(204) 242-2172</t>
   </si>
   <si>
-    <t>La Riviere, Manitoba, Canada</t>
-  </si>
-  <si>
     <t>Chuckster’s Family Fun Park</t>
   </si>
   <si>
@@ -213,12 +213,12 @@
     <t>https://www.ziplinesolutionsus.com/wp-content/uploads/sites/4/2016/12/Chucksters-Family-Fun-Park-Logo.jpg</t>
   </si>
   <si>
+    <t>Vestal, New York</t>
+  </si>
+  <si>
     <t>(607) 752-1070</t>
   </si>
   <si>
-    <t>Vestal, New York</t>
-  </si>
-  <si>
     <t>Rugaru Adventures</t>
   </si>
   <si>
@@ -228,12 +228,12 @@
     <t>https://www.ziplinesolutionsus.com/wp-content/uploads/sites/4/2016/12/Locations_300x200_RugaruAdventures.jpg</t>
   </si>
   <si>
+    <t>Broken Bow, Oklahoma</t>
+  </si>
+  <si>
     <t>(580) 494-2947</t>
   </si>
   <si>
-    <t>Broken Bow, Oklahoma</t>
-  </si>
-  <si>
     <t>Bounce – Abu Dhabi</t>
   </si>
   <si>
@@ -243,12 +243,12 @@
     <t>https://www.ziplinesolutionsus.com/wp-content/uploads/sites/4/2016/12/Locations_300x200_Bounce.jpg</t>
   </si>
   <si>
+    <t>Al Marina, Abu Dhabi, United Arab Emirates</t>
+  </si>
+  <si>
     <t>+971 4 321 1400</t>
   </si>
   <si>
-    <t>Al Marina, Abu Dhabi, United Arab Emirates</t>
-  </si>
-  <si>
     <t>DropZone – Plymouth</t>
   </si>
   <si>
@@ -291,12 +291,12 @@
     <t>https://www.ziplinesolutionsus.com/wp-content/uploads/sites/4/2016/11/Locations_300x200_BelmountPark.jpg</t>
   </si>
   <si>
+    <t>San Diego, California</t>
+  </si>
+  <si>
     <t>(858) 228-9283</t>
   </si>
   <si>
-    <t>San Diego, California</t>
-  </si>
-  <si>
     <t>Angry Birds Activity Park</t>
   </si>
   <si>
@@ -306,10 +306,10 @@
     <t>https://www.ziplinesolutionsus.com/wp-content/uploads/sites/4/2016/10/Locations_300x200_AngryBirdsActivityPark.jpg</t>
   </si>
   <si>
+    <t>St. Petersberg, Russia</t>
+  </si>
+  <si>
     <t>+7 (812) 602-06-67</t>
-  </si>
-  <si>
-    <t>St. Petersberg, Russia</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d9a98710-f06f-4cd8-85d5-e0b4301f18d5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2353308b-d56c-4a11-8b4d-976e97115906}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -789,7 +789,7 @@
     <col min="1" max="1" width="32.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="75.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="102.428571428571" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="4" max="4" width="37.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="16.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="13.5714285714286" customWidth="1"/>
     <col min="7" max="7" width="32.2857142857143" customWidth="1"/>
@@ -867,14 +867,17 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -887,15 +890,17 @@
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75">
@@ -908,14 +913,17 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -974,15 +982,17 @@
       <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75">
@@ -995,17 +1005,20 @@
       <c r="C10" t="s">
         <v>49</v>
       </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -1018,15 +1031,17 @@
       <c r="C11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75">
@@ -1039,14 +1054,17 @@
       <c r="C12" t="s">
         <v>59</v>
       </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
         <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -1059,15 +1077,17 @@
       <c r="C13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E13" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75">
@@ -1080,14 +1100,17 @@
       <c r="C14" t="s">
         <v>69</v>
       </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
         <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -1100,15 +1123,17 @@
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="E15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75">
@@ -1164,14 +1189,17 @@
       <c r="C18" t="s">
         <v>90</v>
       </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
         <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" ht="12.75">
@@ -1184,15 +1212,17 @@
       <c r="C19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="E19" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>93</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
